--- a/Bin_data/Burley/Burley90.xlsx
+++ b/Bin_data/Burley/Burley90.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD32"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="15" spans="1:56">
       <c r="A15" s="1">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="B15">
-        <v>0.07039613832000001</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.09589594763999999</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.5127986976</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2822,25 +2822,25 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>1.52682436584</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>1.56647895888</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1.51060393332</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>1.43589681804</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>1.19677346268</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.7328729982000001</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>1.19973551676</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>0.96428894988</v>
+        <v>0</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>1.0541010252</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>1.4161524462</v>
+        <v>0</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -2932,10 +2932,10 @@
     </row>
     <row r="16" spans="1:56">
       <c r="A16" s="1">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.07039613832000001</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2944,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.17083778568</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.30985484352</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.09589594763999999</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.07942569000000001</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2980,37 +2980,37 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>0.5127986976</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.22334575944</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>0.12941079516</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.52682436584</v>
       </c>
       <c r="V16">
-        <v>0.02752313832</v>
+        <v>1.56647895888</v>
       </c>
       <c r="W16">
-        <v>0.09007285380000001</v>
+        <v>1.51060393332</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1.43589681804</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1.19677346268</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>0.7328729982000001</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1.19973551676</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -3019,16 +3019,16 @@
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>0.96428894988</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.0541010252</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1.4161524462</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>0.12072605304</v>
+        <v>0</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="17" spans="1:56">
       <c r="A17" s="1">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3114,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.17083778568</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.30985484352</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3132,10 +3132,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.07942569000000001</v>
       </c>
       <c r="L17">
-        <v>0.10571552424</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -3156,19 +3156,19 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.22334575944</v>
       </c>
       <c r="T17">
-        <v>0.06403323192</v>
+        <v>0.12941079516</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>0.02752313832</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>0.09007285380000001</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>0.12072605304</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="18" spans="1:56">
       <c r="A18" s="1">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.10571552424</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -3329,13 +3329,13 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>0.06403323192</v>
       </c>
       <c r="U18">
-        <v>0.8360471216400001</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>0.6487132992</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="19" spans="1:56">
       <c r="A19" s="1">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3451,13 +3451,13 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.01612085792</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.94502038536</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>0.8360471216400001</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>0.6487132992</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="20" spans="1:56">
       <c r="A20" s="1">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3621,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1.01612085792</v>
       </c>
       <c r="E20">
-        <v>0.5234892322800001</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.94502038536</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0.93598187184</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>0.1196422236</v>
+        <v>0</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="AQ20">
-        <v>0.04425002544</v>
+        <v>0</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="AZ20">
-        <v>0.04846856268</v>
+        <v>0</v>
       </c>
       <c r="BA20">
         <v>0</v>
@@ -3782,19 +3782,19 @@
     </row>
     <row r="21" spans="1:56">
       <c r="A21" s="1">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.20006267784</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>3.67795501284</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.32113658304</v>
+        <v>0.5234892322800001</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.13422059256</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>0.93598187184</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>0.1196422236</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>0.04425002544</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="AZ21">
-        <v>0</v>
+        <v>0.04846856268</v>
       </c>
       <c r="BA21">
         <v>0</v>
@@ -3952,19 +3952,19 @@
     </row>
     <row r="22" spans="1:56">
       <c r="A22" s="1">
-        <v>0.6599999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.20006267784</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>3.67795501284</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.32113658304</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.13422059256</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -4006,22 +4006,22 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>4.97265909276</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>5.55551962992</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>6.19092160944</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>6.687224270280001</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>6.0435916152</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>0.91988629656</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.20911883844</v>
+        <v>0</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -4117,12 +4117,12 @@
         <v>0</v>
       </c>
       <c r="BD22">
-        <v>0.14956138176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:56">
       <c r="A23" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.22563269384</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4176,22 +4176,22 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>4.97265909276</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>5.55551962992</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>6.19092160944</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>6.687224270280001</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>6.0435916152</v>
       </c>
       <c r="X23">
-        <v>0.34848125904</v>
+        <v>0.91988629656</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.20911883844</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.07898539812000001</v>
+        <v>0</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="AT23">
-        <v>0.0742084608</v>
+        <v>0</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -4287,12 +4287,12 @@
         <v>0</v>
       </c>
       <c r="BD23">
-        <v>0.0620720826</v>
+        <v>0.14956138176</v>
       </c>
     </row>
     <row r="24" spans="1:56">
       <c r="A24" s="1">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4301,37 +4301,37 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>4.22563269384</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9693833133599999</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.26488969644</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0.5777546118000001</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7538520018</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.5141446346</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>3.68430668928</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>2.21378032572</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>2.03056767732</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -4340,13 +4340,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5.37520220904</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0.0925829988</v>
+        <v>0</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>0.34848125904</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>0.07898539812000001</v>
       </c>
       <c r="AQ24">
         <v>0</v>
@@ -4424,10 +4424,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.04537025544</v>
+        <v>0</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>0.0742084608</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -4457,12 +4457,12 @@
         <v>0</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>0.0620720826</v>
       </c>
     </row>
     <row r="25" spans="1:56">
       <c r="A25" s="1">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4477,52 +4477,52 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.9693833133599999</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.26488969644</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.5777546118000001</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.7538520018</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.229257144</v>
+        <v>1.5141446346</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>3.68430668928</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.21378032572</v>
       </c>
       <c r="N25">
-        <v>0.25597747848</v>
+        <v>2.03056767732</v>
       </c>
       <c r="O25">
-        <v>1.59883352472</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>5.37520220904</v>
       </c>
       <c r="R25">
-        <v>1.27320960456</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>1.461836532</v>
+        <v>0.0925829988</v>
       </c>
       <c r="T25">
-        <v>1.14936936744</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>0.8383789149599999</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>0.04537025544</v>
       </c>
       <c r="AT25">
         <v>0</v>
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>0.10065949752</v>
+        <v>0</v>
       </c>
       <c r="BB25">
         <v>0</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="26" spans="1:56">
       <c r="A26" s="1">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>18.68874403812</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4662,19 +4662,19 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>0.229257144</v>
       </c>
       <c r="L26">
-        <v>0.14628035256</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0.04606562784</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>0.25597747848</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1.59883352472</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -4683,16 +4683,16 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1.27320960456</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1.461836532</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1.14936936744</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>0.8383789149599999</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>0.08670065723999999</v>
+        <v>0</v>
       </c>
       <c r="AS26">
         <v>0</v>
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>0.10065949752</v>
       </c>
       <c r="BB26">
         <v>0</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="27" spans="1:56">
       <c r="A27" s="1">
-        <v>0.8099999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>18.68874403812</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>0.14628035256</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>0.04606562784</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4925,13 +4925,13 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.05943591864000001</v>
+        <v>0</v>
       </c>
       <c r="AQ27">
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>0.08670065723999999</v>
       </c>
       <c r="AS27">
         <v>0</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="28" spans="1:56">
       <c r="A28" s="1">
-        <v>0.84</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.77005600428</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0.41701388784</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.06553422948</v>
+        <v>0.05943591864000001</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="29" spans="1:56">
       <c r="A29" s="1">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.77005600428</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>0.41701388784</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -5265,13 +5265,13 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>0.06553422948</v>
       </c>
       <c r="AQ29">
-        <v>0.24733477956</v>
+        <v>0</v>
       </c>
       <c r="AR29">
-        <v>0.2999414442</v>
+        <v>0</v>
       </c>
       <c r="AS29">
         <v>0</v>
@@ -5295,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="AZ29">
-        <v>0.03310973916</v>
+        <v>0</v>
       </c>
       <c r="BA29">
         <v>0</v>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="30" spans="1:56">
       <c r="A30" s="1">
-        <v>0.8999999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5438,16 +5438,16 @@
         <v>0</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>0.24733477956</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>0.2999414442</v>
       </c>
       <c r="AS30">
         <v>0</v>
       </c>
       <c r="AT30">
-        <v>0.07534158036000001</v>
+        <v>0</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -5465,16 +5465,16 @@
         <v>0</v>
       </c>
       <c r="AZ30">
-        <v>0.09773262696</v>
+        <v>0.03310973916</v>
       </c>
       <c r="BA30">
-        <v>0.11078527032</v>
+        <v>0</v>
       </c>
       <c r="BB30">
         <v>0</v>
       </c>
       <c r="BC30">
-        <v>0.06432344064000001</v>
+        <v>0</v>
       </c>
       <c r="BD30">
         <v>0</v>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="31" spans="1:56">
       <c r="A31" s="1">
-        <v>0.9299999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0.08799824316</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>0.06012686544</v>
+        <v>0</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -5563,34 +5563,34 @@
         <v>0</v>
       </c>
       <c r="AB31">
-        <v>0.4464293574000001</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.5075903196</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>0.4405419264</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>0.50790298824</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>0.44620359648</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>0.4682779914</v>
+        <v>0</v>
       </c>
       <c r="AH31">
-        <v>0.31394332344</v>
+        <v>0</v>
       </c>
       <c r="AI31">
-        <v>0.24225546312</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
-        <v>0.23395209708</v>
+        <v>0</v>
       </c>
       <c r="AK31">
-        <v>0.24195396912</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>0</v>
@@ -5608,43 +5608,43 @@
         <v>0</v>
       </c>
       <c r="AQ31">
-        <v>0.04572496728</v>
+        <v>0</v>
       </c>
       <c r="AR31">
-        <v>0.21582832464</v>
+        <v>0</v>
       </c>
       <c r="AS31">
-        <v>0.08141405675999999</v>
+        <v>0</v>
       </c>
       <c r="AT31">
-        <v>0</v>
+        <v>0.07534158036000001</v>
       </c>
       <c r="AU31">
-        <v>0.11728631076</v>
+        <v>0</v>
       </c>
       <c r="AV31">
-        <v>0.15102791496</v>
+        <v>0</v>
       </c>
       <c r="AW31">
-        <v>0.10192306164</v>
+        <v>0</v>
       </c>
       <c r="AX31">
-        <v>0.1463161446</v>
+        <v>0</v>
       </c>
       <c r="AY31">
-        <v>0.1208656254</v>
+        <v>0</v>
       </c>
       <c r="AZ31">
-        <v>0.22362684036</v>
+        <v>0.09773262696</v>
       </c>
       <c r="BA31">
-        <v>0.3171843009600001</v>
+        <v>0.11078527032</v>
       </c>
       <c r="BB31">
-        <v>0.25002388476</v>
+        <v>0</v>
       </c>
       <c r="BC31">
-        <v>0</v>
+        <v>0.06432344064000001</v>
       </c>
       <c r="BD31">
         <v>0</v>
@@ -5652,171 +5652,681 @@
     </row>
     <row r="32" spans="1:56">
       <c r="A32" s="1">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0.08799824316</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0.06012686544</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0.4464293574000001</v>
+      </c>
+      <c r="AC32">
+        <v>0.5075903196</v>
+      </c>
+      <c r="AD32">
+        <v>0.4405419264</v>
+      </c>
+      <c r="AE32">
+        <v>0.50790298824</v>
+      </c>
+      <c r="AF32">
+        <v>0.44620359648</v>
+      </c>
+      <c r="AG32">
+        <v>0.4682779914</v>
+      </c>
+      <c r="AH32">
+        <v>0.31394332344</v>
+      </c>
+      <c r="AI32">
+        <v>0.24225546312</v>
+      </c>
+      <c r="AJ32">
+        <v>0.23395209708</v>
+      </c>
+      <c r="AK32">
+        <v>0.24195396912</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0.04572496728</v>
+      </c>
+      <c r="AR32">
+        <v>0.21582832464</v>
+      </c>
+      <c r="AS32">
+        <v>0.08141405675999999</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0.11728631076</v>
+      </c>
+      <c r="AV32">
+        <v>0.15102791496</v>
+      </c>
+      <c r="AW32">
+        <v>0.10192306164</v>
+      </c>
+      <c r="AX32">
+        <v>0.1463161446</v>
+      </c>
+      <c r="AY32">
+        <v>0.1208656254</v>
+      </c>
+      <c r="AZ32">
+        <v>0.22362684036</v>
+      </c>
+      <c r="BA32">
+        <v>0.3171843009600001</v>
+      </c>
+      <c r="BB32">
+        <v>0.25002388476</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56">
+      <c r="A33" s="1">
         <v>0.96</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>4.55934124476</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>10.74300359784</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>11.8367468244</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>6.32719551444</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>4.13084558028</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>2.0920519296</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>2.41254148992</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <v>1.2531647898</v>
       </c>
-      <c r="K32">
+      <c r="K33">
         <v>1.10294338512</v>
       </c>
-      <c r="L32">
+      <c r="L33">
         <v>0.83395016172</v>
       </c>
-      <c r="M32">
+      <c r="M33">
         <v>0.6612634709999999</v>
       </c>
-      <c r="N32">
+      <c r="N33">
         <v>0.6016322727600001</v>
       </c>
-      <c r="O32">
+      <c r="O33">
         <v>0.5636765016</v>
       </c>
-      <c r="P32">
+      <c r="P33">
         <v>0.63166411776</v>
       </c>
-      <c r="Q32">
+      <c r="Q33">
         <v>0.5535160984799999</v>
       </c>
-      <c r="R32">
+      <c r="R33">
         <v>0.5848828704</v>
       </c>
-      <c r="S32">
+      <c r="S33">
         <v>0.6718457997599999</v>
       </c>
-      <c r="T32">
+      <c r="T33">
         <v>0.69482080428</v>
       </c>
-      <c r="U32">
+      <c r="U33">
         <v>0.7778429028</v>
       </c>
-      <c r="V32">
+      <c r="V33">
         <v>0.7209066736800001</v>
       </c>
-      <c r="W32">
+      <c r="W33">
         <v>0.68775295512</v>
       </c>
-      <c r="X32">
+      <c r="X33">
         <v>0.68630180088</v>
       </c>
-      <c r="Y32">
+      <c r="Y33">
         <v>0.597765792</v>
       </c>
-      <c r="Z32">
+      <c r="Z33">
         <v>0.58182655104</v>
       </c>
-      <c r="AA32">
+      <c r="AA33">
         <v>0.63085893516</v>
       </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
         <v>0.19765564932</v>
       </c>
-      <c r="AM32">
+      <c r="AM33">
         <v>0.17956219224</v>
       </c>
-      <c r="AN32">
+      <c r="AN33">
         <v>0.19416589776</v>
       </c>
-      <c r="AO32">
+      <c r="AO33">
         <v>0.15180272688</v>
       </c>
-      <c r="AP32">
+      <c r="AP33">
         <v>0.1794873996</v>
       </c>
-      <c r="AQ32">
+      <c r="AQ33">
         <v>0.1130572074</v>
       </c>
-      <c r="AR32">
-        <v>0</v>
-      </c>
-      <c r="AS32">
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
         <v>0.12202551984</v>
       </c>
-      <c r="AT32">
+      <c r="AT33">
         <v>0.1476501864</v>
       </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>0</v>
-      </c>
-      <c r="AW32">
-        <v>0</v>
-      </c>
-      <c r="AX32">
-        <v>0</v>
-      </c>
-      <c r="AY32">
-        <v>0</v>
-      </c>
-      <c r="AZ32">
-        <v>0</v>
-      </c>
-      <c r="BA32">
-        <v>0</v>
-      </c>
-      <c r="BB32">
-        <v>0</v>
-      </c>
-      <c r="BC32">
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
         <v>0.2956566336</v>
       </c>
-      <c r="BD32">
+      <c r="BD33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56">
+      <c r="A34" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
         <v>0</v>
       </c>
     </row>

--- a/Bin_data/Burley/Burley90.xlsx
+++ b/Bin_data/Burley/Burley90.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD34"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5819,6 +5819,11 @@
         <v>0.99</v>
       </c>
     </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
